--- a/data/trans_camb/P57_AC_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 4,26</t>
+          <t>-8,98; 3,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,84; 16,09</t>
+          <t>4,28; 15,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,85; -4,36</t>
+          <t>-17,07; -3,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 10,33</t>
+          <t>-5,36; 10,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 18,4</t>
+          <t>4,3; 18,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,83; -6,91</t>
+          <t>-20,95; -7,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 4,32</t>
+          <t>-6,04; 4,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,36; 15,32</t>
+          <t>6,11; 15,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,5; -7,89</t>
+          <t>-17,17; -8,07</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 7,01</t>
+          <t>-13,11; 5,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,52; 25,53</t>
+          <t>6,02; 25,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,44; -7,04</t>
+          <t>-24,82; -5,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 16,76</t>
+          <t>-7,9; 16,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 29,98</t>
+          <t>6,31; 31,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,17; -11,67</t>
+          <t>-30,16; -12,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 6,84</t>
+          <t>-8,89; 7,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,2; 24,2</t>
+          <t>8,72; 24,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,51; -12,43</t>
+          <t>-25,1; -12,96</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 10,42</t>
+          <t>-3,63; 10,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,98; 19,26</t>
+          <t>5,26; 19,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 8,53</t>
+          <t>-5,74; 8,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 11,62</t>
+          <t>-2,42; 11,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 18,93</t>
+          <t>5,82; 18,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 3,82</t>
+          <t>-9,2; 3,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 8,72</t>
+          <t>-0,96; 8,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 17,12</t>
+          <t>7,36; 16,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 4,72</t>
+          <t>-5,45; 4,25</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 17,62</t>
+          <t>-5,73; 18,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,56; 33,19</t>
+          <t>8,0; 33,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 14,89</t>
+          <t>-8,82; 14,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 18,69</t>
+          <t>-3,48; 19,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 30,25</t>
+          <t>8,5; 30,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 6,15</t>
+          <t>-13,08; 5,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 14,23</t>
+          <t>-1,38; 13,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,36; 28,31</t>
+          <t>11,15; 26,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 7,8</t>
+          <t>-8,16; 6,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,2; -0,53</t>
+          <t>-11,52; -0,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,84; 17,49</t>
+          <t>7,01; 17,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-57,0; -7,17</t>
+          <t>-58,09; -7,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 9,48</t>
+          <t>-9,69; 9,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,43; 24,81</t>
+          <t>7,45; 25,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 5,29</t>
+          <t>-13,0; 4,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 0,45</t>
+          <t>-9,19; 0,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,84; 17,62</t>
+          <t>9,07; 17,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-55,3; -5,91</t>
+          <t>-51,25; -5,72</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,14; -0,68</t>
+          <t>-15,32; -0,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,09; 25,28</t>
+          <t>9,24; 25,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,84; -10,12</t>
+          <t>-81,02; -10,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 14,8</t>
+          <t>-13,06; 13,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,19; 38,79</t>
+          <t>9,87; 39,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 8,2</t>
+          <t>-17,62; 7,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 0,58</t>
+          <t>-12,46; 0,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,8; 25,83</t>
+          <t>12,23; 25,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-75,4; -8,42</t>
+          <t>-71,34; -8,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 0,95</t>
+          <t>-6,81; 0,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,6; 11,91</t>
+          <t>4,82; 11,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,01; -2,48</t>
+          <t>-11,1; -2,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 8,97</t>
+          <t>-0,13; 9,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,22; 14,33</t>
+          <t>6,01; 14,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,29; -6,98</t>
+          <t>-15,79; -6,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 3,32</t>
+          <t>-2,57; 3,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,47; 11,9</t>
+          <t>6,57; 11,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,48; -5,24</t>
+          <t>-11,25; -5,25</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 1,39</t>
+          <t>-9,41; 1,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,39; 17,42</t>
+          <t>6,61; 17,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,36; -3,71</t>
+          <t>-15,48; -3,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,33; 12,66</t>
+          <t>-0,15; 13,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,22; 20,15</t>
+          <t>8,02; 20,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,5; -9,92</t>
+          <t>-21,06; -9,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 4,74</t>
+          <t>-3,52; 4,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,8; 16,97</t>
+          <t>8,96; 17,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -7,56</t>
+          <t>-15,43; -7,42</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 6,27</t>
+          <t>-6,52; 6,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,24; 15,89</t>
+          <t>3,69; 16,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 3,97</t>
+          <t>-9,85; 4,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 2,93</t>
+          <t>-5,59; 3,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,61; 11,37</t>
+          <t>3,12; 11,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-32,2; -7,91</t>
+          <t>-32,13; -7,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 2,82</t>
+          <t>-4,99; 2,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,31; 11,42</t>
+          <t>4,04; 11,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-24,67; -5,48</t>
+          <t>-22,94; -5,46</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 9,32</t>
+          <t>-8,66; 9,2</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>5,32; 24,1</t>
+          <t>4,76; 24,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 5,83</t>
+          <t>-12,98; 6,13</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 3,96</t>
+          <t>-6,96; 4,57</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,19; 15,26</t>
+          <t>3,91; 15,71</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-40,93; -10,65</t>
+          <t>-41,29; -10,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 3,91</t>
+          <t>-6,44; 3,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>5,54; 15,6</t>
+          <t>5,19; 15,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-32,29; -7,37</t>
+          <t>-30,38; -7,5</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 11,26</t>
+          <t>-5,06; 11,36</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>12,8; 27,96</t>
+          <t>11,94; 28,07</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-25,85; -2,92</t>
+          <t>-26,88; -3,01</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 6,4</t>
+          <t>-1,4; 6,31</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,05; 16,12</t>
+          <t>8,98; 15,79</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -1,14</t>
+          <t>-9,85; -1,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 6,46</t>
+          <t>-0,97; 5,65</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>10,82; 17,3</t>
+          <t>10,34; 16,95</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,29; -4,01</t>
+          <t>-13,62; -4,45</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 20,97</t>
+          <t>-8,16; 21,34</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>21,06; 54,63</t>
+          <t>19,36; 53,48</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-45,45; -5,79</t>
+          <t>-46,12; -5,42</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 9,54</t>
+          <t>-1,97; 9,48</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>12,72; 23,94</t>
+          <t>12,69; 23,71</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-13,57; -1,73</t>
+          <t>-13,92; -1,53</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 9,93</t>
+          <t>-1,33; 8,79</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>15,77; 26,93</t>
+          <t>15,2; 26,2</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-19,86; -6,18</t>
+          <t>-19,74; -6,73</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 0,69</t>
+          <t>-3,81; 0,8</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>9,05; 13,36</t>
+          <t>8,99; 13,42</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-22,4; -6,03</t>
+          <t>-24,72; -6,02</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,2; 4,56</t>
+          <t>0,33; 4,55</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,41; 13,33</t>
+          <t>9,13; 13,32</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-14,53; -7,08</t>
+          <t>-13,94; -6,95</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,18</t>
+          <t>-1,06; 2,04</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>9,61; 12,62</t>
+          <t>9,79; 12,67</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-17,42; -7,56</t>
+          <t>-17,61; -7,24</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 1,04</t>
+          <t>-5,5; 1,18</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>13,05; 20,02</t>
+          <t>12,98; 19,89</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-32,92; -8,94</t>
+          <t>-35,9; -8,81</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,28; 6,61</t>
+          <t>0,46; 6,55</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>13,11; 19,27</t>
+          <t>12,65; 19,14</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-20,4; -10,12</t>
+          <t>-19,6; -10,01</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 3,26</t>
+          <t>-1,51; 2,99</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>13,66; 18,39</t>
+          <t>13,97; 18,48</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-24,99; -10,96</t>
+          <t>-25,21; -10,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_AC_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
